--- a/biology/Médecine/Gilbert_Schlogel/Gilbert_Schlogel.xlsx
+++ b/biology/Médecine/Gilbert_Schlogel/Gilbert_Schlogel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilbert Schlogel, né le 10 décembre 1932 à Paris, est un chirurgien et écrivain français. 
 </t>
@@ -511,9 +523,11 @@
           <t>Carrière médicale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Interne des hôpitaux de Paris puis chef de clinique, il est affecté en antenne chirurgicale pendant la guerre d'Algérie. Il exerce ensuite la chirurgie dans une clinique de Gassin (Var) jusqu'en 1991[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Interne des hôpitaux de Paris puis chef de clinique, il est affecté en antenne chirurgicale pendant la guerre d'Algérie. Il exerce ensuite la chirurgie dans une clinique de Gassin (Var) jusqu'en 1991.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1981 De l'autre côté du bistouri, ed belfond
 1985 Le Malingot, Prix Littré
-1992 Les Princes du sang[2]
+1992 Les Princes du sang
 1994 Docteur Hellen, suite des Princes de sang
 1995 Rage de flic Prix du Quai des Orfèvres 1996
 1996 Victoire ou la douleur des femmes
@@ -588,9 +604,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Il a été nommé chevalier dans l'Ordre des Arts et des Lettres en janvier 2010[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il a été nommé chevalier dans l'Ordre des Arts et des Lettres en janvier 2010.
 Prix Littré 1985 pour Le Malingot
 Prix du Quai des Orfèvres 1996 pour Rage de flic
 Prix Jackie-Bouquin 2004 pour Pour l'honneur d'un médecin</t>
